--- a/REGULAR/OJT/NEW DONE/HERNANDEZ, CORNELIO.xlsx
+++ b/REGULAR/OJT/NEW DONE/HERNANDEZ, CORNELIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DEFFB3-DAE7-4B80-9730-D2028715B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3885" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="275">
   <si>
     <t>PERIOD</t>
   </si>
@@ -170,9 +163,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>HERNANDEZ, C0RNELIO</t>
-  </si>
-  <si>
     <t>Leave transfer from CEO as of May 31,1998</t>
   </si>
   <si>
@@ -864,12 +854,18 @@
   </si>
   <si>
     <t>03/14,15/2022</t>
+  </si>
+  <si>
+    <t>HERNANDEZ, CORNELIO</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1100,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,7 +1256,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,6 +1294,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1747,7 +1746,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1789,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1853,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1913,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1979,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2042,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2140,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2199,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2264,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2307,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2382,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2568,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2634,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2692,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2758,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2815,7 +2814,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2889,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2932,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +2998,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3055,7 +3054,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3152,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3215,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,26 +3281,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K414" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K414"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K486" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3313,13 +3312,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3328,14 +3327,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3639,7 +3638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3649,7 +3648,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3657,39 +3656,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K414"/>
+  <dimension ref="A2:K486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A104" activePane="bottomLeft"/>
-      <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="3900" topLeftCell="A409" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="C416" sqref="C416:C418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
@@ -3705,7 +3704,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3723,7 +3722,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3741,7 +3740,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3749,7 +3748,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3762,7 +3761,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -3779,7 +3778,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" s="47" t="s">
         <v>23</v>
@@ -3823,7 +3822,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>138.67499999999993</v>
+        <v>142.42499999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3833,15 +3832,15 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>179.5</v>
+        <v>183.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="11"/>
@@ -3860,7 +3859,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48">
         <v>35947</v>
       </c>
@@ -3880,7 +3879,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>35977</v>
       </c>
@@ -3900,7 +3899,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>36008</v>
       </c>
@@ -3920,12 +3919,12 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>36039</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="49">
         <v>1.25</v>
@@ -3941,10 +3940,10 @@
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
       <c r="K14" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>36069</v>
       </c>
@@ -3964,7 +3963,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>36100</v>
       </c>
@@ -3984,12 +3983,12 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>36130</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="49">
         <v>1.25</v>
@@ -4008,9 +4007,9 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -4030,7 +4029,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>36161</v>
       </c>
@@ -4050,7 +4049,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>36192</v>
       </c>
@@ -4070,7 +4069,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>36220</v>
       </c>
@@ -4090,7 +4089,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>36251</v>
       </c>
@@ -4110,7 +4109,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>36281</v>
       </c>
@@ -4130,7 +4129,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>36312</v>
       </c>
@@ -4150,12 +4149,12 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>36342</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -4173,10 +4172,10 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>36373</v>
       </c>
@@ -4196,7 +4195,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>36404</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>36434</v>
       </c>
@@ -4236,7 +4235,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>36465</v>
       </c>
@@ -4256,7 +4255,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>36495</v>
       </c>
@@ -4276,9 +4275,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -4294,12 +4293,12 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>36526</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -4317,13 +4316,13 @@
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
       <c r="K32" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
       <c r="B33" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="37"/>
@@ -4339,10 +4338,10 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>36557</v>
       </c>
@@ -4362,7 +4361,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>36586</v>
       </c>
@@ -4382,7 +4381,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>36617</v>
       </c>
@@ -4402,7 +4401,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>36647</v>
       </c>
@@ -4422,7 +4421,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>36678</v>
       </c>
@@ -4442,7 +4441,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>36708</v>
       </c>
@@ -4462,7 +4461,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>36739</v>
       </c>
@@ -4482,7 +4481,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>36770</v>
       </c>
@@ -4502,12 +4501,12 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>36800</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -4525,13 +4524,13 @@
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="37">
@@ -4547,10 +4546,10 @@
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>36831</v>
       </c>
@@ -4570,7 +4569,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>36861</v>
       </c>
@@ -4590,9 +4589,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4612,12 +4611,12 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>36892</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -4635,10 +4634,10 @@
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>36923</v>
       </c>
@@ -4658,12 +4657,12 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>36951</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
@@ -4681,13 +4680,13 @@
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="37">
@@ -4703,10 +4702,10 @@
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>36982</v>
       </c>
@@ -4726,7 +4725,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>37012</v>
       </c>
@@ -4746,7 +4745,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>37043</v>
       </c>
@@ -4766,7 +4765,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>37073</v>
       </c>
@@ -4786,12 +4785,12 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>37104</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -4809,10 +4808,10 @@
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>37135</v>
       </c>
@@ -4832,7 +4831,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>37165</v>
       </c>
@@ -4852,7 +4851,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>37196</v>
       </c>
@@ -4872,7 +4871,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>37226</v>
       </c>
@@ -4892,9 +4891,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4914,7 +4913,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>37257</v>
       </c>
@@ -4934,7 +4933,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>37288</v>
       </c>
@@ -4954,7 +4953,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>37316</v>
       </c>
@@ -4974,7 +4973,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>37347</v>
       </c>
@@ -4994,7 +4993,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>37377</v>
       </c>
@@ -5014,7 +5013,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>37408</v>
       </c>
@@ -5034,12 +5033,12 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>37438</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -5058,12 +5057,12 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>37469</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -5081,13 +5080,13 @@
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
       <c r="B69" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="37">
@@ -5104,12 +5103,12 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>37500</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -5127,10 +5126,10 @@
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>37530</v>
       </c>
@@ -5150,12 +5149,12 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>37561</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -5174,12 +5173,12 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>37591</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -5198,10 +5197,10 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="37">
@@ -5218,9 +5217,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5240,7 +5239,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>37622</v>
       </c>
@@ -5260,12 +5259,12 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>37653</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -5284,12 +5283,12 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
         <v>37681</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -5307,13 +5306,13 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38"/>
       <c r="B79" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="37">
@@ -5327,12 +5326,12 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>37712</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -5353,7 +5352,7 @@
         <v>37722</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
         <v>37742</v>
       </c>
@@ -5373,12 +5372,12 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>37773</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -5396,13 +5395,13 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38"/>
       <c r="B83" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="37">
@@ -5418,10 +5417,10 @@
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <v>37803</v>
       </c>
@@ -5441,7 +5440,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38">
         <v>37834</v>
       </c>
@@ -5461,12 +5460,12 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
         <v>37865</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="13">
         <v>1.25</v>
@@ -5485,12 +5484,12 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38">
         <v>37895</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -5509,12 +5508,12 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <v>37926</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -5532,13 +5531,13 @@
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="37">
@@ -5555,7 +5554,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <v>37956</v>
       </c>
@@ -5575,9 +5574,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5597,7 +5596,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38">
         <v>37987</v>
       </c>
@@ -5617,7 +5616,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
         <v>38018</v>
       </c>
@@ -5637,7 +5636,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38">
         <v>38047</v>
       </c>
@@ -5657,7 +5656,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>38078</v>
       </c>
@@ -5677,7 +5676,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38">
         <v>38108</v>
       </c>
@@ -5697,7 +5696,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
         <v>38139</v>
       </c>
@@ -5717,7 +5716,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38">
         <v>38169</v>
       </c>
@@ -5737,7 +5736,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38">
         <v>38200</v>
       </c>
@@ -5757,7 +5756,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <v>38231</v>
       </c>
@@ -5777,12 +5776,12 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38">
         <v>38261</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" s="13">
         <v>1.25</v>
@@ -5803,12 +5802,12 @@
         <v>38266</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38">
         <v>38292</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102" s="13">
         <v>1.25</v>
@@ -5826,10 +5825,10 @@
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38">
         <v>38322</v>
       </c>
@@ -5849,9 +5848,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5871,12 +5870,12 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38">
         <v>38353</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
@@ -5895,12 +5894,12 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38">
         <v>38384</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="13">
         <v>1.25</v>
@@ -5919,12 +5918,12 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38">
         <v>38412</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -5943,12 +5942,12 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38">
         <v>38443</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="13">
         <v>1.25</v>
@@ -5967,12 +5966,12 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38">
         <v>38473</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -5990,15 +5989,15 @@
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38">
         <v>38504</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C110" s="13">
         <v>1.25</v>
@@ -6016,15 +6015,15 @@
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38">
         <v>38534</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" s="13">
         <v>1.25</v>
@@ -6043,12 +6042,12 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38">
         <v>38565</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112" s="13">
         <v>1.25</v>
@@ -6067,12 +6066,12 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38">
         <v>38596</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -6090,10 +6089,10 @@
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38">
         <v>38626</v>
       </c>
@@ -6113,12 +6112,12 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38">
         <v>38657</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
@@ -6134,15 +6133,15 @@
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38">
         <v>38687</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -6160,12 +6159,12 @@
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
       <c r="K116" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -6185,12 +6184,12 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38">
         <v>38718</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -6211,10 +6210,10 @@
         <v>38734</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38"/>
       <c r="B119" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="37">
@@ -6231,12 +6230,12 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38">
         <v>38749</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -6255,12 +6254,12 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38">
         <v>38777</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -6276,13 +6275,13 @@
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
       <c r="K121" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38"/>
       <c r="B122" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="37"/>
@@ -6296,15 +6295,15 @@
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
       <c r="K122" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38">
         <v>38808</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" s="13">
         <v>1.25</v>
@@ -6323,7 +6322,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38">
         <v>38838</v>
       </c>
@@ -6342,15 +6341,15 @@
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
       <c r="K124" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38">
         <v>38869</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -6369,12 +6368,12 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38">
         <v>38899</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="13">
         <v>1.25</v>
@@ -6393,12 +6392,12 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38">
         <v>38930</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
@@ -6417,12 +6416,12 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38">
         <v>38961</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -6441,12 +6440,12 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38">
         <v>38991</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C129" s="13">
         <v>1.25</v>
@@ -6464,13 +6463,13 @@
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="37"/>
@@ -6486,13 +6485,13 @@
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
       <c r="K130" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="38"/>
       <c r="B131" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="37">
@@ -6509,12 +6508,12 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="38">
         <v>39022</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C132" s="13">
         <v>1.25</v>
@@ -6532,13 +6531,13 @@
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="38"/>
       <c r="B133" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="37">
@@ -6555,12 +6554,12 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="38">
         <v>39052</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
@@ -6578,13 +6577,13 @@
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="37"/>
@@ -6600,13 +6599,13 @@
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="38"/>
       <c r="B136" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="37">
@@ -6623,10 +6622,10 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="38"/>
       <c r="B137" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="37">
@@ -6643,9 +6642,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -6665,12 +6664,12 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="38">
         <v>39083</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C139" s="13">
         <v>1.25</v>
@@ -6689,12 +6688,12 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="38">
         <v>39114</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
@@ -6713,12 +6712,12 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="38">
         <v>39142</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="13">
         <v>1.25</v>
@@ -6737,12 +6736,12 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="38">
         <v>39173</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -6761,12 +6760,12 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="38">
         <v>39203</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C143" s="13">
         <v>1.25</v>
@@ -6784,15 +6783,15 @@
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
       <c r="K143" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="38">
         <v>39234</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C144" s="13">
         <v>1.25</v>
@@ -6810,15 +6809,15 @@
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
       <c r="K144" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="38">
         <v>39264</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C145" s="13">
         <v>1.25</v>
@@ -6839,12 +6838,12 @@
         <v>39275</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="38">
         <v>39295</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -6863,12 +6862,12 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="38">
         <v>39326</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C147" s="13">
         <v>1.25</v>
@@ -6886,13 +6885,13 @@
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
       <c r="K147" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="38"/>
       <c r="B148" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="37">
@@ -6906,7 +6905,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="38">
         <v>39356</v>
       </c>
@@ -6926,12 +6925,12 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="38">
         <v>39387</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C150" s="13">
         <v>1.25</v>
@@ -6950,12 +6949,12 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="38">
         <v>39417</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -6974,9 +6973,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6996,12 +6995,12 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="38">
         <v>39448</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -7019,13 +7018,13 @@
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
       <c r="K153" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="38"/>
       <c r="B154" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="37">
@@ -7042,12 +7041,12 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="38">
         <v>39479</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C155" s="13">
         <v>1.25</v>
@@ -7065,13 +7064,13 @@
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
       <c r="K155" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="38"/>
       <c r="B156" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="37"/>
@@ -7085,13 +7084,13 @@
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="38"/>
       <c r="B157" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="37">
@@ -7107,13 +7106,13 @@
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
       <c r="K157" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="38"/>
       <c r="B158" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="37">
@@ -7130,10 +7129,10 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="38"/>
       <c r="B159" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="37">
@@ -7150,12 +7149,12 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="38">
         <v>39508</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C160" s="13">
         <v>1.25</v>
@@ -7173,13 +7172,13 @@
       <c r="I160" s="9"/>
       <c r="J160" s="12"/>
       <c r="K160" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="38"/>
       <c r="B161" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="37"/>
@@ -7193,13 +7192,13 @@
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
       <c r="K161" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="38"/>
       <c r="B162" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="37">
@@ -7216,12 +7215,12 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="38">
         <v>39539</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C163" s="13">
         <v>1.25</v>
@@ -7237,10 +7236,10 @@
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="38">
         <v>39569</v>
       </c>
@@ -7260,12 +7259,12 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="38">
         <v>39600</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C165" s="13">
         <v>1.25</v>
@@ -7283,13 +7282,13 @@
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
       <c r="K165" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="38"/>
       <c r="B166" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="37">
@@ -7306,12 +7305,12 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="38">
         <v>39630</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C167" s="13">
         <v>1.25</v>
@@ -7332,10 +7331,10 @@
         <v>39640</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="38"/>
       <c r="B168" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="37"/>
@@ -7351,13 +7350,13 @@
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="38"/>
       <c r="B169" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="37">
@@ -7374,12 +7373,12 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="38">
         <v>39661</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C170" s="13">
         <v>1.25</v>
@@ -7398,12 +7397,12 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="38">
         <v>39692</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C171" s="13">
         <v>1.25</v>
@@ -7422,12 +7421,12 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="38">
         <v>39722</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C172" s="13">
         <v>1.25</v>
@@ -7445,13 +7444,13 @@
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="38"/>
       <c r="B173" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="37">
@@ -7467,13 +7466,13 @@
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
       <c r="K173" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="38"/>
       <c r="B174" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="37"/>
@@ -7492,7 +7491,7 @@
         <v>39762</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="38">
         <v>39753</v>
       </c>
@@ -7512,7 +7511,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="38">
         <v>39783</v>
       </c>
@@ -7532,9 +7531,9 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7554,12 +7553,12 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="38">
         <v>39814</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
@@ -7578,12 +7577,12 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="38">
         <v>39845</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C179" s="13">
         <v>1.25</v>
@@ -7602,12 +7601,12 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="38">
         <v>39873</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C180" s="13">
         <v>1.25</v>
@@ -7626,12 +7625,12 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="38">
         <v>39904</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C181" s="13">
         <v>1.25</v>
@@ -7650,12 +7649,12 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="38">
         <v>39934</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -7674,12 +7673,12 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="38">
         <v>39965</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C183" s="13">
         <v>1.25</v>
@@ -7697,13 +7696,13 @@
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="20">
@@ -7717,12 +7716,12 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="38">
         <v>39995</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C185" s="13">
         <v>1.25</v>
@@ -7738,12 +7737,12 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="38">
         <v>40026</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C186" s="13">
         <v>1.25</v>
@@ -7762,12 +7761,12 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="38">
         <v>40057</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C187" s="13">
         <v>1.25</v>
@@ -7786,12 +7785,12 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="38">
         <v>40087</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C188" s="13">
         <v>1.25</v>
@@ -7812,10 +7811,10 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="38"/>
       <c r="B189" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="37">
@@ -7829,12 +7828,12 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="38">
         <v>40118</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C190" s="13">
         <v>1.25</v>
@@ -7853,12 +7852,12 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="38">
         <v>40148</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C191" s="13">
         <v>1.25</v>
@@ -7877,10 +7876,10 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="38"/>
       <c r="B192" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="37">
@@ -7897,9 +7896,9 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7919,12 +7918,12 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="38">
         <v>40179</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C194" s="13">
         <v>1.25</v>
@@ -7942,13 +7941,13 @@
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
       <c r="K194" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="38"/>
       <c r="B195" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="37">
@@ -7965,12 +7964,12 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="38">
         <v>40210</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C196" s="13">
         <v>1.25</v>
@@ -7986,13 +7985,13 @@
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
       <c r="K196" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="38"/>
       <c r="B197" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="37">
@@ -8011,10 +8010,10 @@
         <v>40257</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="38"/>
       <c r="B198" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="37">
@@ -8031,12 +8030,12 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="38">
         <v>40238</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C199" s="13">
         <v>1.25</v>
@@ -8055,12 +8054,12 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="38">
         <v>40269</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -8079,12 +8078,12 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="38">
         <v>40299</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C201" s="13">
         <v>1.25</v>
@@ -8102,13 +8101,13 @@
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
       <c r="K201" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="38"/>
       <c r="B202" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="37">
@@ -8125,12 +8124,12 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="38">
         <v>40330</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C203" s="13">
         <v>1.25</v>
@@ -8149,12 +8148,12 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="38">
         <v>40360</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C204" s="13">
         <v>1.25</v>
@@ -8173,12 +8172,12 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="38">
         <v>40391</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C205" s="13">
         <v>1.25</v>
@@ -8196,13 +8195,13 @@
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
       <c r="K205" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="38"/>
       <c r="B206" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="37"/>
@@ -8215,13 +8214,13 @@
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
       <c r="K206" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="38"/>
       <c r="B207" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C207" s="13"/>
       <c r="D207" s="37">
@@ -8235,12 +8234,12 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="38">
         <v>40422</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C208" s="13">
         <v>1.25</v>
@@ -8259,12 +8258,12 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="38">
         <v>40452</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C209" s="13">
         <v>1.25</v>
@@ -8283,12 +8282,12 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="38">
         <v>40483</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C210" s="13">
         <v>1.25</v>
@@ -8306,13 +8305,13 @@
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="38"/>
       <c r="B211" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="37">
@@ -8325,13 +8324,13 @@
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
       <c r="K211" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="38"/>
       <c r="B212" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="37"/>
@@ -8344,13 +8343,13 @@
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
       <c r="K212" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="37">
@@ -8364,12 +8363,12 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="38">
         <v>40513</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C214" s="13">
         <v>1.25</v>
@@ -8388,9 +8387,9 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -8410,12 +8409,12 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="38">
         <v>40544</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C216" s="13">
         <v>1.25</v>
@@ -8433,13 +8432,13 @@
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
       <c r="K216" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="38"/>
       <c r="B217" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C217" s="13"/>
       <c r="D217" s="37">
@@ -8456,12 +8455,12 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="38">
         <v>40575</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C218" s="13">
         <v>1.25</v>
@@ -8480,12 +8479,12 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="38">
         <v>40603</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C219" s="13">
         <v>1.25</v>
@@ -8503,13 +8502,13 @@
       <c r="I219" s="9"/>
       <c r="J219" s="11"/>
       <c r="K219" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="38"/>
       <c r="B220" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C220" s="13"/>
       <c r="D220" s="37"/>
@@ -8523,13 +8522,13 @@
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
       <c r="K220" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="38"/>
       <c r="B221" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="37"/>
@@ -8545,13 +8544,13 @@
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
       <c r="K221" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="38"/>
       <c r="B222" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="37">
@@ -8568,12 +8567,12 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="38">
         <v>40634</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223" s="13">
         <v>1.25</v>
@@ -8592,12 +8591,12 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="38">
         <v>40664</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C224" s="13">
         <v>1.25</v>
@@ -8615,13 +8614,13 @@
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="37">
@@ -8638,7 +8637,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="38">
         <v>40695</v>
       </c>
@@ -8658,7 +8657,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="38">
         <v>40725</v>
       </c>
@@ -8678,7 +8677,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="38">
         <v>40756</v>
       </c>
@@ -8698,7 +8697,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="38">
         <v>40787</v>
       </c>
@@ -8718,7 +8717,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="38">
         <v>40817</v>
       </c>
@@ -8738,7 +8737,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="38">
         <v>40848</v>
       </c>
@@ -8758,12 +8757,12 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="38">
         <v>40878</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C232" s="13">
         <v>1.25</v>
@@ -8781,13 +8780,13 @@
       <c r="I232" s="9"/>
       <c r="J232" s="11"/>
       <c r="K232" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="38"/>
       <c r="B233" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="37"/>
@@ -8803,13 +8802,13 @@
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
       <c r="K233" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="38"/>
       <c r="B234" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="37">
@@ -8826,10 +8825,10 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="38"/>
       <c r="B235" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C235" s="13"/>
       <c r="D235" s="37">
@@ -8846,9 +8845,9 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -8868,12 +8867,12 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="38">
         <v>40909</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C237" s="13">
         <v>1.25</v>
@@ -8894,7 +8893,7 @@
         <v>40931</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="38">
         <v>40940</v>
       </c>
@@ -8914,12 +8913,12 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="38">
         <v>40969</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C239" s="13">
         <v>1.25</v>
@@ -8935,13 +8934,13 @@
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
       <c r="K239" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="38"/>
       <c r="B240" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C240" s="13"/>
       <c r="D240" s="37"/>
@@ -8952,10 +8951,10 @@
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
       <c r="K240" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="38">
         <v>41000</v>
       </c>
@@ -8975,7 +8974,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="38">
         <v>41030</v>
       </c>
@@ -8995,7 +8994,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="38">
         <v>41061</v>
       </c>
@@ -9015,7 +9014,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="38">
         <v>41091</v>
       </c>
@@ -9035,7 +9034,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="38">
         <v>41122</v>
       </c>
@@ -9055,7 +9054,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="38">
         <v>41153</v>
       </c>
@@ -9075,7 +9074,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="38">
         <v>41183</v>
       </c>
@@ -9095,7 +9094,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="38">
         <v>41214</v>
       </c>
@@ -9115,12 +9114,12 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="38">
         <v>41244</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -9138,12 +9137,12 @@
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
       <c r="K249" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -9163,7 +9162,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="38">
         <v>41275</v>
       </c>
@@ -9183,7 +9182,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="38">
         <v>41306</v>
       </c>
@@ -9203,7 +9202,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="38">
         <v>41334</v>
       </c>
@@ -9223,7 +9222,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="38">
         <v>41365</v>
       </c>
@@ -9243,7 +9242,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="38">
         <v>41395</v>
       </c>
@@ -9263,7 +9262,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="38">
         <v>41426</v>
       </c>
@@ -9283,7 +9282,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="38">
         <v>41456</v>
       </c>
@@ -9303,7 +9302,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="38">
         <v>41487</v>
       </c>
@@ -9323,12 +9322,12 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="38">
         <v>41518</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C259" s="13">
         <v>1.25</v>
@@ -9344,15 +9343,15 @@
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="38">
         <v>41548</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -9371,7 +9370,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="38">
         <v>41579</v>
       </c>
@@ -9391,12 +9390,12 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="38">
         <v>41609</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C262" s="13">
         <v>1.25</v>
@@ -9415,9 +9414,9 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -9437,12 +9436,12 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="38">
         <v>41640</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -9461,7 +9460,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="38">
         <v>41671</v>
       </c>
@@ -9481,7 +9480,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="38">
         <v>41699</v>
       </c>
@@ -9501,12 +9500,12 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="38">
         <v>41730</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -9522,15 +9521,15 @@
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="38">
         <v>41760</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -9548,15 +9547,15 @@
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
       <c r="K268" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="38">
         <v>41791</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C269" s="13">
         <v>1.25</v>
@@ -9575,12 +9574,12 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="38">
         <v>41821</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C270" s="13">
         <v>1.25</v>
@@ -9599,12 +9598,12 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="38">
         <v>41852</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C271" s="13">
         <v>1.25</v>
@@ -9622,13 +9621,13 @@
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="38"/>
       <c r="B272" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C272" s="13"/>
       <c r="D272" s="37">
@@ -9645,12 +9644,12 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="38">
         <v>41883</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C273" s="13">
         <v>1.25</v>
@@ -9669,12 +9668,12 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="38">
         <v>41913</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -9692,13 +9691,13 @@
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="38"/>
       <c r="B275" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="37">
@@ -9715,12 +9714,12 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="38">
         <v>41944</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C276" s="13">
         <v>1.25</v>
@@ -9739,12 +9738,12 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="38">
         <v>41974</v>
       </c>
       <c r="B277" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C277" s="13">
         <v>1.25</v>
@@ -9763,10 +9762,10 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="38"/>
       <c r="B278" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C278" s="13"/>
       <c r="D278" s="37">
@@ -9783,9 +9782,9 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -9805,12 +9804,12 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="38">
         <v>42005</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C280" s="13">
         <v>1.25</v>
@@ -9828,13 +9827,13 @@
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="37">
@@ -9851,7 +9850,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="38">
         <v>42036</v>
       </c>
@@ -9871,12 +9870,12 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="38">
         <v>42064</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C283" s="13">
         <v>1.25</v>
@@ -9892,13 +9891,13 @@
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="38"/>
       <c r="B284" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C284" s="13"/>
       <c r="D284" s="37">
@@ -9915,12 +9914,12 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="38">
         <v>42095</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C285" s="13">
         <v>1.25</v>
@@ -9936,13 +9935,13 @@
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
       <c r="K285" s="20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="38"/>
       <c r="B286" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="37"/>
@@ -9961,10 +9960,10 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="38"/>
       <c r="B287" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C287" s="13"/>
       <c r="D287" s="37">
@@ -9981,12 +9980,12 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="38">
         <v>42125</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C288" s="13">
         <v>1.25</v>
@@ -10005,12 +10004,12 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="38">
         <v>42156</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C289" s="13">
         <v>1.25</v>
@@ -10031,10 +10030,10 @@
         <v>42181</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="38"/>
       <c r="B290" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="37">
@@ -10048,12 +10047,12 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="38">
         <v>42186</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C291" s="13">
         <v>1.25</v>
@@ -10072,7 +10071,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="38">
         <v>42217</v>
       </c>
@@ -10092,7 +10091,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="38">
         <v>42248</v>
       </c>
@@ -10112,7 +10111,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="38">
         <v>42278</v>
       </c>
@@ -10132,7 +10131,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="38">
         <v>42309</v>
       </c>
@@ -10152,12 +10151,12 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="38">
         <v>42339</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -10176,9 +10175,9 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -10198,7 +10197,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="38">
         <v>42370</v>
       </c>
@@ -10218,7 +10217,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="38">
         <v>42401</v>
       </c>
@@ -10238,7 +10237,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="38">
         <v>42430</v>
       </c>
@@ -10258,7 +10257,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="38">
         <v>42461</v>
       </c>
@@ -10278,12 +10277,12 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="38">
         <v>42491</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C302" s="13">
         <v>1.25</v>
@@ -10304,7 +10303,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="38">
         <v>42522</v>
       </c>
@@ -10324,7 +10323,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="38">
         <v>42552</v>
       </c>
@@ -10344,12 +10343,12 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="38">
         <v>42583</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C305" s="13">
         <v>1.25</v>
@@ -10370,12 +10369,12 @@
         <v>42589</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="38">
         <v>42614</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C306" s="13">
         <v>1.25</v>
@@ -10393,13 +10392,13 @@
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="38"/>
       <c r="B307" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C307" s="13"/>
       <c r="D307" s="37">
@@ -10418,12 +10417,12 @@
         <v>42666</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="38">
         <v>42644</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C308" s="13">
         <v>1.25</v>
@@ -10444,10 +10443,10 @@
         <v>42656</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="38"/>
       <c r="B309" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="37"/>
@@ -10463,13 +10462,13 @@
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="38"/>
       <c r="B310" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="37"/>
@@ -10485,15 +10484,15 @@
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="38">
         <v>42675</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C311" s="13">
         <v>1.25</v>
@@ -10511,13 +10510,13 @@
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="38"/>
       <c r="B312" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C312" s="13"/>
       <c r="D312" s="37"/>
@@ -10533,15 +10532,15 @@
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="38">
         <v>42705</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C313" s="13">
         <v>1.25</v>
@@ -10559,12 +10558,12 @@
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -10584,12 +10583,12 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="38">
         <v>42736</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C315" s="13">
         <v>1.25</v>
@@ -10610,7 +10609,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="38">
         <v>42767</v>
       </c>
@@ -10630,12 +10629,12 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="38">
         <v>42795</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C317" s="13">
         <v>1.25</v>
@@ -10651,13 +10650,13 @@
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C318" s="13"/>
       <c r="D318" s="37"/>
@@ -10673,13 +10672,13 @@
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="38"/>
       <c r="B319" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C319" s="13"/>
       <c r="D319" s="37"/>
@@ -10693,10 +10692,10 @@
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="38">
         <v>42826</v>
       </c>
@@ -10716,12 +10715,12 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="38">
         <v>42856</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C321" s="13">
         <v>1.25</v>
@@ -10742,10 +10741,10 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="38"/>
       <c r="B322" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C322" s="13"/>
       <c r="D322" s="37"/>
@@ -10764,10 +10763,10 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="38"/>
       <c r="B323" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C323" s="13"/>
       <c r="D323" s="37"/>
@@ -10786,10 +10785,10 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="38"/>
       <c r="B324" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C324" s="13"/>
       <c r="D324" s="37">
@@ -10805,13 +10804,13 @@
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="38"/>
       <c r="B325" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C325" s="13"/>
       <c r="D325" s="37"/>
@@ -10830,12 +10829,12 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="38">
         <v>42887</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C326" s="13">
         <v>1.25</v>
@@ -10856,10 +10855,10 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="38"/>
       <c r="B327" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="37"/>
@@ -10873,13 +10872,13 @@
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="38"/>
       <c r="B328" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="37"/>
@@ -10895,10 +10894,10 @@
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="38">
         <v>42917</v>
       </c>
@@ -10918,12 +10917,12 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="38">
         <v>42948</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C330" s="13">
         <v>1.25</v>
@@ -10944,10 +10943,10 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="38"/>
       <c r="B331" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C331" s="13"/>
       <c r="D331" s="37"/>
@@ -10966,12 +10965,12 @@
         <v>42971</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="38">
         <v>42979</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C332" s="13">
         <v>1.25</v>
@@ -10992,10 +10991,10 @@
         <v>43004</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C333" s="13"/>
       <c r="D333" s="37">
@@ -11011,10 +11010,10 @@
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
       <c r="K333" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="38">
         <v>43009</v>
       </c>
@@ -11034,12 +11033,12 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="38">
         <v>43040</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C335" s="13">
         <v>1.25</v>
@@ -11060,12 +11059,12 @@
         <v>43046</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="38">
         <v>43070</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C336" s="13">
         <v>1.25</v>
@@ -11086,10 +11085,10 @@
         <v>43077</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C337" s="13"/>
       <c r="D337" s="37"/>
@@ -11105,12 +11104,12 @@
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -11130,12 +11129,12 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="38">
         <v>43101</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C339" s="13">
         <v>1.25</v>
@@ -11153,15 +11152,15 @@
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="38">
         <v>43132</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C340" s="13">
         <v>1.25</v>
@@ -11179,15 +11178,15 @@
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="38">
         <v>43160</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C341" s="13">
         <v>1.25</v>
@@ -11208,10 +11207,10 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="38"/>
       <c r="B342" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C342" s="13"/>
       <c r="D342" s="37"/>
@@ -11227,15 +11226,15 @@
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="38">
         <v>43191</v>
       </c>
       <c r="B343" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C343" s="13">
         <v>1.25</v>
@@ -11253,13 +11252,13 @@
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C344" s="13"/>
       <c r="D344" s="37"/>
@@ -11278,12 +11277,12 @@
         <v>43232</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="38">
         <v>43221</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C345" s="13">
         <v>1.25</v>
@@ -11304,7 +11303,7 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="38">
         <v>43252</v>
       </c>
@@ -11324,7 +11323,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="38">
         <v>43282</v>
       </c>
@@ -11344,7 +11343,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="38">
         <v>43313</v>
       </c>
@@ -11364,7 +11363,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="38">
         <v>43344</v>
       </c>
@@ -11384,12 +11383,12 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="38">
         <v>43374</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C350" s="13">
         <v>1.25</v>
@@ -11410,12 +11409,12 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="38">
         <v>43405</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C351" s="13">
         <v>1.25</v>
@@ -11436,10 +11435,10 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="38"/>
       <c r="B352" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C352" s="13"/>
       <c r="D352" s="37"/>
@@ -11458,10 +11457,10 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="38"/>
       <c r="B353" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C353" s="13"/>
       <c r="D353" s="37">
@@ -11477,13 +11476,13 @@
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
       <c r="K353" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="38"/>
       <c r="B354" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C354" s="13"/>
       <c r="D354" s="37">
@@ -11499,10 +11498,10 @@
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
       <c r="K354" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="38">
         <v>43435</v>
       </c>
@@ -11522,9 +11521,9 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -11544,7 +11543,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="38">
         <v>43466</v>
       </c>
@@ -11564,7 +11563,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="38">
         <v>43497</v>
       </c>
@@ -11584,12 +11583,12 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="38">
         <v>43525</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C359" s="13">
         <v>1.25</v>
@@ -11610,12 +11609,12 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="38">
         <v>43556</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C360" s="13">
         <v>1.25</v>
@@ -11631,13 +11630,13 @@
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="38"/>
       <c r="B361" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="37"/>
@@ -11653,10 +11652,10 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="38"/>
       <c r="B362" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C362" s="13"/>
       <c r="D362" s="37"/>
@@ -11672,12 +11671,12 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="38">
         <v>43586</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C363" s="13">
         <v>1.25</v>
@@ -11693,10 +11692,10 @@
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="38">
         <v>43617</v>
       </c>
@@ -11716,12 +11715,12 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="38">
         <v>43647</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C365" s="13">
         <v>1.25</v>
@@ -11742,7 +11741,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="38">
         <v>43678</v>
       </c>
@@ -11762,7 +11761,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="38">
         <v>43709</v>
       </c>
@@ -11782,12 +11781,12 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="38">
         <v>43739</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C368" s="13">
         <v>1.25</v>
@@ -11805,15 +11804,15 @@
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="38">
         <v>43770</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C369" s="13">
         <v>1.25</v>
@@ -11834,10 +11833,10 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="38"/>
       <c r="B370" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C370" s="13"/>
       <c r="D370" s="37"/>
@@ -11853,10 +11852,10 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="38"/>
       <c r="B371" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C371" s="13"/>
       <c r="D371" s="37">
@@ -11869,10 +11868,10 @@
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
       <c r="K371" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="38">
         <v>43800</v>
       </c>
@@ -11892,9 +11891,9 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11914,12 +11913,12 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="38">
         <v>43831</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C374" s="13">
         <v>1.25</v>
@@ -11937,13 +11936,13 @@
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
       <c r="K374" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="38"/>
       <c r="B375" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C375" s="13"/>
       <c r="D375" s="37"/>
@@ -11954,13 +11953,13 @@
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="38"/>
       <c r="B376" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="37"/>
@@ -11971,15 +11970,15 @@
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="38">
         <v>43862</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -11997,13 +11996,13 @@
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
       <c r="K377" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="38"/>
       <c r="B378" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="37"/>
@@ -12022,7 +12021,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="38">
         <v>43891</v>
       </c>
@@ -12042,7 +12041,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="38">
         <v>43922</v>
       </c>
@@ -12062,7 +12061,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="38">
         <v>43952</v>
       </c>
@@ -12082,7 +12081,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="38">
         <v>43983</v>
       </c>
@@ -12102,7 +12101,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="38">
         <v>44013</v>
       </c>
@@ -12122,7 +12121,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="38">
         <v>44044</v>
       </c>
@@ -12142,12 +12141,12 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="38">
         <v>44075</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C385" s="13">
         <v>1.25</v>
@@ -12165,10 +12164,10 @@
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
       <c r="K385" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="38">
         <v>44105</v>
       </c>
@@ -12188,7 +12187,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="38">
         <v>44136</v>
       </c>
@@ -12208,12 +12207,12 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="38">
         <v>44166</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C388" s="13">
         <v>1.25</v>
@@ -12232,9 +12231,9 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -12254,7 +12253,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="38">
         <v>44197</v>
       </c>
@@ -12274,7 +12273,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="38">
         <v>44228</v>
       </c>
@@ -12294,7 +12293,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="38">
         <v>44256</v>
       </c>
@@ -12314,7 +12313,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="38">
         <v>44287</v>
       </c>
@@ -12334,7 +12333,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="38">
         <v>44317</v>
       </c>
@@ -12354,7 +12353,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="38">
         <v>44348</v>
       </c>
@@ -12374,7 +12373,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="38">
         <v>44378</v>
       </c>
@@ -12394,7 +12393,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="38">
         <v>44409</v>
       </c>
@@ -12414,7 +12413,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="38">
         <v>44440</v>
       </c>
@@ -12434,7 +12433,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="38">
         <v>44470</v>
       </c>
@@ -12454,7 +12453,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="38">
         <v>44501</v>
       </c>
@@ -12474,12 +12473,12 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="38">
         <v>44531</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C401" s="13">
         <v>1.25</v>
@@ -12498,9 +12497,9 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -12520,7 +12519,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="38">
         <v>44562</v>
       </c>
@@ -12540,7 +12539,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="38">
         <v>44593</v>
       </c>
@@ -12560,12 +12559,12 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="38">
         <v>44621</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
@@ -12583,15 +12582,15 @@
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
       <c r="K405" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="38">
         <v>44652</v>
       </c>
       <c r="B406" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C406" s="13">
         <v>1.25</v>
@@ -12612,7 +12611,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="38">
         <v>44682</v>
       </c>
@@ -12632,7 +12631,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="38">
         <v>44713</v>
       </c>
@@ -12652,7 +12651,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="38">
         <v>44743</v>
       </c>
@@ -12672,7 +12671,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="38">
         <v>44774</v>
       </c>
@@ -12692,7 +12691,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="38">
         <v>44805</v>
       </c>
@@ -12712,7 +12711,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="38">
         <v>44835</v>
       </c>
@@ -12732,7 +12731,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="38">
         <v>44866</v>
       </c>
@@ -12752,7 +12751,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="38">
         <v>44896</v>
       </c>
@@ -12771,6 +12770,1210 @@
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="B415" s="20"/>
+      <c r="C415" s="13"/>
+      <c r="D415" s="37"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="20"/>
+      <c r="G415" s="39" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H415" s="37"/>
+      <c r="I415" s="9"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="20"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" s="38">
+        <v>44927</v>
+      </c>
+      <c r="B416" s="20"/>
+      <c r="C416" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D416" s="37"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="20"/>
+      <c r="G416" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H416" s="37"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="20"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" s="38">
+        <v>44958</v>
+      </c>
+      <c r="B417" s="20"/>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D417" s="37"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="20"/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H417" s="37"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="20"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="38">
+        <v>44986</v>
+      </c>
+      <c r="B418" s="20"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D418" s="37"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="20"/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H418" s="37"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="20"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="38">
+        <v>45017</v>
+      </c>
+      <c r="B419" s="20"/>
+      <c r="C419" s="13"/>
+      <c r="D419" s="37"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="20"/>
+      <c r="G419" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H419" s="37"/>
+      <c r="I419" s="9"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="20"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="38">
+        <v>45047</v>
+      </c>
+      <c r="B420" s="20"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="37"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="20"/>
+      <c r="G420" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H420" s="37"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="20"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" s="38">
+        <v>45078</v>
+      </c>
+      <c r="B421" s="20"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="37"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H421" s="37"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="20"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" s="38">
+        <v>45108</v>
+      </c>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="37"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H422" s="37"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="38">
+        <v>45139</v>
+      </c>
+      <c r="B423" s="20"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="37"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="37"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="20"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" s="38">
+        <v>45170</v>
+      </c>
+      <c r="B424" s="20"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="37"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H424" s="37"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="20"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" s="38">
+        <v>45200</v>
+      </c>
+      <c r="B425" s="20"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="37"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H425" s="37"/>
+      <c r="I425" s="9"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="20"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" s="38">
+        <v>45231</v>
+      </c>
+      <c r="B426" s="20"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="37"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H426" s="37"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="20"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" s="38">
+        <v>45261</v>
+      </c>
+      <c r="B427" s="20"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="37"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="20"/>
+      <c r="G427" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H427" s="37"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="11"/>
+      <c r="K427" s="20"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="38">
+        <v>45292</v>
+      </c>
+      <c r="B428" s="20"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="37"/>
+      <c r="E428" s="9"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H428" s="37"/>
+      <c r="I428" s="9"/>
+      <c r="J428" s="11"/>
+      <c r="K428" s="20"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" s="38">
+        <v>45323</v>
+      </c>
+      <c r="B429" s="20"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="37"/>
+      <c r="E429" s="9"/>
+      <c r="F429" s="20"/>
+      <c r="G429" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H429" s="37"/>
+      <c r="I429" s="9"/>
+      <c r="J429" s="11"/>
+      <c r="K429" s="20"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" s="38">
+        <v>45352</v>
+      </c>
+      <c r="B430" s="20"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="37"/>
+      <c r="E430" s="9"/>
+      <c r="F430" s="20"/>
+      <c r="G430" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H430" s="37"/>
+      <c r="I430" s="9"/>
+      <c r="J430" s="11"/>
+      <c r="K430" s="20"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" s="38">
+        <v>45383</v>
+      </c>
+      <c r="B431" s="20"/>
+      <c r="C431" s="13"/>
+      <c r="D431" s="37"/>
+      <c r="E431" s="9"/>
+      <c r="F431" s="20"/>
+      <c r="G431" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H431" s="37"/>
+      <c r="I431" s="9"/>
+      <c r="J431" s="11"/>
+      <c r="K431" s="20"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" s="38">
+        <v>45413</v>
+      </c>
+      <c r="B432" s="20"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="37"/>
+      <c r="E432" s="9"/>
+      <c r="F432" s="20"/>
+      <c r="G432" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H432" s="37"/>
+      <c r="I432" s="9"/>
+      <c r="J432" s="11"/>
+      <c r="K432" s="20"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A433" s="38">
+        <v>45444</v>
+      </c>
+      <c r="B433" s="20"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="37"/>
+      <c r="E433" s="9"/>
+      <c r="F433" s="20"/>
+      <c r="G433" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H433" s="37"/>
+      <c r="I433" s="9"/>
+      <c r="J433" s="11"/>
+      <c r="K433" s="20"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A434" s="38">
+        <v>45474</v>
+      </c>
+      <c r="B434" s="20"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="37"/>
+      <c r="E434" s="9"/>
+      <c r="F434" s="20"/>
+      <c r="G434" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H434" s="37"/>
+      <c r="I434" s="9"/>
+      <c r="J434" s="11"/>
+      <c r="K434" s="20"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A435" s="38">
+        <v>45505</v>
+      </c>
+      <c r="B435" s="20"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="37"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="20"/>
+      <c r="G435" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H435" s="37"/>
+      <c r="I435" s="9"/>
+      <c r="J435" s="11"/>
+      <c r="K435" s="20"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A436" s="38">
+        <v>45536</v>
+      </c>
+      <c r="B436" s="20"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="37"/>
+      <c r="E436" s="9"/>
+      <c r="F436" s="20"/>
+      <c r="G436" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H436" s="37"/>
+      <c r="I436" s="9"/>
+      <c r="J436" s="11"/>
+      <c r="K436" s="20"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A437" s="38">
+        <v>45566</v>
+      </c>
+      <c r="B437" s="20"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="37"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="20"/>
+      <c r="G437" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H437" s="37"/>
+      <c r="I437" s="9"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="20"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A438" s="38"/>
+      <c r="B438" s="20"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="37"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H438" s="37"/>
+      <c r="I438" s="9"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="20"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A439" s="38"/>
+      <c r="B439" s="20"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="37"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H439" s="37"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="20"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A440" s="38"/>
+      <c r="B440" s="20"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="37"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H440" s="37"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="20"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A441" s="38"/>
+      <c r="B441" s="20"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="37"/>
+      <c r="E441" s="9"/>
+      <c r="F441" s="20"/>
+      <c r="G441" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H441" s="37"/>
+      <c r="I441" s="9"/>
+      <c r="J441" s="11"/>
+      <c r="K441" s="20"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A442" s="38"/>
+      <c r="B442" s="20"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="37"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H442" s="37"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="20"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A443" s="38"/>
+      <c r="B443" s="20"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="37"/>
+      <c r="E443" s="9"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H443" s="37"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="20"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A444" s="38"/>
+      <c r="B444" s="20"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="37"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H444" s="37"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A445" s="38"/>
+      <c r="B445" s="20"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="37"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="37"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A446" s="38"/>
+      <c r="B446" s="20"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="37"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="37"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A447" s="38"/>
+      <c r="B447" s="20"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="37"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H447" s="37"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="20"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A448" s="38"/>
+      <c r="B448" s="20"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="37"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H448" s="37"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="20"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A449" s="38"/>
+      <c r="B449" s="20"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="37"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H449" s="37"/>
+      <c r="I449" s="9"/>
+      <c r="J449" s="11"/>
+      <c r="K449" s="20"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A450" s="38"/>
+      <c r="B450" s="20"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="37"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H450" s="37"/>
+      <c r="I450" s="9"/>
+      <c r="J450" s="11"/>
+      <c r="K450" s="20"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A451" s="38"/>
+      <c r="B451" s="20"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="37"/>
+      <c r="E451" s="9"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H451" s="37"/>
+      <c r="I451" s="9"/>
+      <c r="J451" s="11"/>
+      <c r="K451" s="20"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A452" s="38"/>
+      <c r="B452" s="20"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="37"/>
+      <c r="E452" s="9"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H452" s="37"/>
+      <c r="I452" s="9"/>
+      <c r="J452" s="11"/>
+      <c r="K452" s="20"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A453" s="38"/>
+      <c r="B453" s="20"/>
+      <c r="C453" s="13"/>
+      <c r="D453" s="37"/>
+      <c r="E453" s="9"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H453" s="37"/>
+      <c r="I453" s="9"/>
+      <c r="J453" s="11"/>
+      <c r="K453" s="20"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A454" s="38"/>
+      <c r="B454" s="20"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="37"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H454" s="37"/>
+      <c r="I454" s="9"/>
+      <c r="J454" s="11"/>
+      <c r="K454" s="20"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A455" s="38"/>
+      <c r="B455" s="20"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="37"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H455" s="37"/>
+      <c r="I455" s="9"/>
+      <c r="J455" s="11"/>
+      <c r="K455" s="20"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A456" s="38"/>
+      <c r="B456" s="20"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="37"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H456" s="37"/>
+      <c r="I456" s="9"/>
+      <c r="J456" s="11"/>
+      <c r="K456" s="20"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A457" s="38"/>
+      <c r="B457" s="20"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="37"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H457" s="37"/>
+      <c r="I457" s="9"/>
+      <c r="J457" s="11"/>
+      <c r="K457" s="20"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A458" s="38"/>
+      <c r="B458" s="20"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="37"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H458" s="37"/>
+      <c r="I458" s="9"/>
+      <c r="J458" s="11"/>
+      <c r="K458" s="20"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A459" s="38"/>
+      <c r="B459" s="20"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="37"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H459" s="37"/>
+      <c r="I459" s="9"/>
+      <c r="J459" s="11"/>
+      <c r="K459" s="20"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A460" s="38"/>
+      <c r="B460" s="20"/>
+      <c r="C460" s="13"/>
+      <c r="D460" s="37"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="20"/>
+      <c r="G460" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H460" s="37"/>
+      <c r="I460" s="9"/>
+      <c r="J460" s="11"/>
+      <c r="K460" s="20"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A461" s="38"/>
+      <c r="B461" s="20"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="37"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H461" s="37"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="11"/>
+      <c r="K461" s="20"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A462" s="38"/>
+      <c r="B462" s="20"/>
+      <c r="C462" s="13"/>
+      <c r="D462" s="37"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H462" s="37"/>
+      <c r="I462" s="9"/>
+      <c r="J462" s="11"/>
+      <c r="K462" s="20"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A463" s="38"/>
+      <c r="B463" s="20"/>
+      <c r="C463" s="13"/>
+      <c r="D463" s="37"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H463" s="37"/>
+      <c r="I463" s="9"/>
+      <c r="J463" s="11"/>
+      <c r="K463" s="20"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A464" s="38"/>
+      <c r="B464" s="20"/>
+      <c r="C464" s="13"/>
+      <c r="D464" s="37"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H464" s="37"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="11"/>
+      <c r="K464" s="20"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" s="38"/>
+      <c r="B465" s="20"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="37"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="20"/>
+      <c r="G465" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H465" s="37"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="11"/>
+      <c r="K465" s="20"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A466" s="38"/>
+      <c r="B466" s="20"/>
+      <c r="C466" s="13"/>
+      <c r="D466" s="37"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="20"/>
+      <c r="G466" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H466" s="37"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="11"/>
+      <c r="K466" s="20"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A467" s="38"/>
+      <c r="B467" s="20"/>
+      <c r="C467" s="13"/>
+      <c r="D467" s="37"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="20"/>
+      <c r="G467" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H467" s="37"/>
+      <c r="I467" s="9"/>
+      <c r="J467" s="11"/>
+      <c r="K467" s="20"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A468" s="38"/>
+      <c r="B468" s="20"/>
+      <c r="C468" s="13"/>
+      <c r="D468" s="37"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="20"/>
+      <c r="G468" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H468" s="37"/>
+      <c r="I468" s="9"/>
+      <c r="J468" s="11"/>
+      <c r="K468" s="20"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469" s="38"/>
+      <c r="B469" s="20"/>
+      <c r="C469" s="13"/>
+      <c r="D469" s="37"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="20"/>
+      <c r="G469" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H469" s="37"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="11"/>
+      <c r="K469" s="20"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470" s="38"/>
+      <c r="B470" s="20"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="37"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="20"/>
+      <c r="G470" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H470" s="37"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="11"/>
+      <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" s="38"/>
+      <c r="B471" s="20"/>
+      <c r="C471" s="13"/>
+      <c r="D471" s="37"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="20"/>
+      <c r="G471" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H471" s="37"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="11"/>
+      <c r="K471" s="20"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472" s="38"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="13"/>
+      <c r="D472" s="37"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="20"/>
+      <c r="G472" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H472" s="37"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="11"/>
+      <c r="K472" s="20"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473" s="38"/>
+      <c r="B473" s="20"/>
+      <c r="C473" s="13"/>
+      <c r="D473" s="37"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="20"/>
+      <c r="G473" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H473" s="37"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="11"/>
+      <c r="K473" s="20"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A474" s="38"/>
+      <c r="B474" s="20"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="37"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H474" s="37"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475" s="38"/>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="37"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="37"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="20"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476" s="38"/>
+      <c r="B476" s="20"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="37"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H476" s="37"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="20"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477" s="38"/>
+      <c r="B477" s="20"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="37"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="37"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="20"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="38"/>
+      <c r="B478" s="20"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="37"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H478" s="37"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479" s="38"/>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="37"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H479" s="37"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="38"/>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="37"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H480" s="37"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="38"/>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="37"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="37"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="38"/>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="37"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H482" s="37"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A483" s="38"/>
+      <c r="B483" s="20"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="37"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="20"/>
+      <c r="G483" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H483" s="37"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="11"/>
+      <c r="K483" s="20"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A484" s="38"/>
+      <c r="B484" s="20"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="37"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="20"/>
+      <c r="G484" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H484" s="37"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="11"/>
+      <c r="K484" s="20"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A485" s="38"/>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="37"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H485" s="37"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="11"/>
+      <c r="K485" s="20"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A486" s="68"/>
+      <c r="B486" s="15"/>
+      <c r="C486" s="39"/>
+      <c r="D486" s="40"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="15"/>
+      <c r="G486" s="39" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="40"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="12"/>
+      <c r="K486" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12787,10 +13990,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12813,7 +14016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12821,21 +14024,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -12848,7 +14051,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -12877,7 +14080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -12901,17 +14104,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -12932,7 +14135,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -12959,7 +14162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -12985,7 +14188,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -13011,7 +14214,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -13038,7 +14241,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -13064,7 +14267,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -13090,7 +14293,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -13116,7 +14319,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -13142,7 +14345,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -13162,7 +14365,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -13182,7 +14385,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -13202,7 +14405,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -13223,7 +14426,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -13244,7 +14447,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -13265,7 +14468,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -13286,7 +14489,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -13307,7 +14510,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -13328,7 +14531,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -13349,7 +14552,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -13370,7 +14573,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -13391,7 +14594,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -13412,7 +14615,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -13433,7 +14636,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -13454,7 +14657,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -13475,7 +14678,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -13496,7 +14699,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -13517,7 +14720,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -13538,7 +14741,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -13559,7 +14762,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -13580,7 +14783,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -13601,7 +14804,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -13622,7 +14825,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -13631,7 +14834,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -13640,7 +14843,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -13649,7 +14852,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -13658,7 +14861,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -13667,7 +14870,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -13676,7 +14879,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -13685,7 +14888,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -13694,7 +14897,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -13703,7 +14906,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -13712,7 +14915,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -13721,7 +14924,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -13730,7 +14933,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -13739,7 +14942,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -13748,7 +14951,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -13757,7 +14960,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -13766,7 +14969,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -13775,7 +14978,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -13784,7 +14987,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -13793,7 +14996,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -13802,7 +15005,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -13811,7 +15014,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -13820,7 +15023,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -13829,7 +15032,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -13838,7 +15041,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -13847,7 +15050,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -13856,7 +15059,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -13865,7 +15068,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -13874,7 +15077,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -13883,7 +15086,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
